--- a/doc/Calcul_net_2.xlsx
+++ b/doc/Calcul_net_2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Planification cantonale\AUTRES TACHES DE LA SECTION AC\STATIONNEMENT\Stationnement_Fonds_privés\06_SIG_Stats_Analyse\Calcul_dimensionnement\Calcul_auto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\sitn_stationnements\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10905" activeTab="6"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10905" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="localisation_projet" sheetId="1" r:id="rId1"/>
@@ -950,87 +950,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
@@ -1042,6 +967,81 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1580,16 +1580,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="83" t="s">
+      <c r="B1" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
     </row>
     <row r="3" spans="1:11" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="84"/>
+      <c r="A3" s="92"/>
       <c r="B3" s="28">
         <v>1</v>
       </c>
@@ -1602,7 +1602,7 @@
       <c r="E3" s="29"/>
     </row>
     <row r="4" spans="1:11" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="84"/>
+      <c r="A4" s="92"/>
       <c r="B4" s="28">
         <v>2</v>
       </c>
@@ -1615,7 +1615,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="84"/>
+      <c r="A5" s="92"/>
       <c r="B5" s="28" t="s">
         <v>44</v>
       </c>
@@ -1697,10 +1697,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B1" s="83" t="s">
+      <c r="B1" s="91" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="83"/>
+      <c r="C1" s="91"/>
       <c r="D1" s="57"/>
       <c r="E1" s="57"/>
       <c r="F1" s="57"/>
@@ -1713,10 +1713,10 @@
       <c r="F2" s="34"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B3" s="87" t="s">
+      <c r="B3" s="95" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="88"/>
+      <c r="C3" s="96"/>
     </row>
     <row r="4" spans="2:6" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="2:6" s="27" customFormat="1" x14ac:dyDescent="0.2">
@@ -1726,10 +1726,10 @@
     </row>
     <row r="6" spans="2:6" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="85" t="s">
+      <c r="B7" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="86"/>
+      <c r="C7" s="94"/>
     </row>
     <row r="8" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="59" t="s">
@@ -1756,10 +1756,10 @@
       <c r="C11" s="27"/>
     </row>
     <row r="12" spans="2:6" s="27" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="85" t="s">
+      <c r="B12" s="93" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="86"/>
+      <c r="C12" s="94"/>
     </row>
     <row r="13" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="59" t="s">
@@ -1780,10 +1780,10 @@
     <row r="15" spans="2:6" s="27" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="16" spans="2:6" s="27" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="17" spans="2:3" s="27" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="87" t="s">
+      <c r="B17" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="88"/>
+      <c r="C17" s="96"/>
     </row>
     <row r="18" spans="2:3" s="27" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="19" spans="2:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1793,10 +1793,10 @@
     </row>
     <row r="20" spans="2:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="2:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="85" t="s">
+      <c r="B21" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="86"/>
+      <c r="C21" s="94"/>
     </row>
     <row r="22" spans="2:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="59" t="str">
@@ -1810,10 +1810,10 @@
     <row r="23" spans="2:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="24" spans="2:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="25" spans="2:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="85" t="s">
+      <c r="B25" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="86"/>
+      <c r="C25" s="94"/>
     </row>
     <row r="26" spans="2:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="59" t="str">
@@ -1830,10 +1830,10 @@
     </row>
     <row r="28" spans="2:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="29" spans="2:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="85" t="s">
+      <c r="B29" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="86"/>
+      <c r="C29" s="94"/>
     </row>
     <row r="30" spans="2:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="59" t="str">
@@ -1849,10 +1849,10 @@
       <c r="C31" s="27"/>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B33" s="85" t="s">
+      <c r="B33" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="86"/>
+      <c r="C33" s="94"/>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B34" s="59" t="str">
@@ -1868,10 +1868,10 @@
       <c r="C35" s="27"/>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B37" s="85" t="s">
+      <c r="B37" s="93" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="86"/>
+      <c r="C37" s="94"/>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B38" s="59" t="str">
@@ -1887,10 +1887,10 @@
       <c r="C39" s="27"/>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B41" s="85" t="s">
+      <c r="B41" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="C41" s="86"/>
+      <c r="C41" s="94"/>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B42" s="59" t="str">
@@ -1960,14 +1960,14 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="41"/>
-      <c r="B1" s="92" t="s">
+      <c r="B1" s="100" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
       <c r="H1" s="49"/>
       <c r="I1" s="41"/>
     </row>
@@ -1983,14 +1983,14 @@
       <c r="I2" s="41"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="96" t="s">
+      <c r="B3" s="99" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
       <c r="H3" s="42"/>
       <c r="I3" s="41"/>
     </row>
@@ -2001,21 +2001,21 @@
       <c r="G4" s="43"/>
     </row>
     <row r="5" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="93" t="str">
+      <c r="B5" s="101" t="str">
         <f>IF(details_projet!C8="","",details_projet!B7)</f>
         <v>Logements standards</v>
       </c>
-      <c r="C5" s="94"/>
-      <c r="D5" s="91" t="s">
+      <c r="C5" s="102"/>
+      <c r="D5" s="98" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="91"/>
-      <c r="I5" s="95" t="s">
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="98"/>
+      <c r="I5" s="97" t="s">
         <v>55</v>
       </c>
-      <c r="J5" s="95"/>
+      <c r="J5" s="97"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" s="50" t="s">
@@ -2042,8 +2042,8 @@
         <v>m2 de SBP</v>
       </c>
       <c r="H6" s="41"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="95"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="97"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="75" t="s">
@@ -2058,8 +2058,8 @@
       <c r="F7" s="38"/>
       <c r="G7" s="38"/>
       <c r="H7" s="41"/>
-      <c r="I7" s="95"/>
-      <c r="J7" s="95"/>
+      <c r="I7" s="97"/>
+      <c r="J7" s="97"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="44" t="s">
@@ -2086,8 +2086,8 @@
         <v>m2 de SBP</v>
       </c>
       <c r="H8" s="41"/>
-      <c r="I8" s="95"/>
-      <c r="J8" s="95"/>
+      <c r="I8" s="97"/>
+      <c r="J8" s="97"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="45" t="s">
@@ -2102,8 +2102,8 @@
       <c r="F9" s="46"/>
       <c r="G9" s="47"/>
       <c r="H9" s="41"/>
-      <c r="I9" s="95"/>
-      <c r="J9" s="95"/>
+      <c r="I9" s="97"/>
+      <c r="J9" s="97"/>
     </row>
     <row r="10" spans="1:10" s="78" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="79"/>
@@ -2112,24 +2112,24 @@
       <c r="E10" s="41"/>
       <c r="F10" s="41"/>
       <c r="G10" s="41"/>
-      <c r="I10" s="95"/>
-      <c r="J10" s="95"/>
+      <c r="I10" s="97"/>
+      <c r="J10" s="97"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B11" s="89" t="str">
+      <c r="B11" s="103" t="str">
         <f>IF(details_projet!C13="","",details_projet!B12)</f>
         <v>Logements avec encadrement ou étudiants</v>
       </c>
-      <c r="C11" s="90"/>
-      <c r="D11" s="91" t="s">
+      <c r="C11" s="104"/>
+      <c r="D11" s="98" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="91"/>
-      <c r="F11" s="91"/>
-      <c r="G11" s="91"/>
+      <c r="E11" s="98"/>
+      <c r="F11" s="98"/>
+      <c r="G11" s="98"/>
       <c r="H11" s="41"/>
-      <c r="I11" s="95"/>
-      <c r="J11" s="95"/>
+      <c r="I11" s="97"/>
+      <c r="J11" s="97"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" s="50" t="s">
@@ -2156,8 +2156,8 @@
         <v>m2 de SBP</v>
       </c>
       <c r="H12" s="41"/>
-      <c r="I12" s="95"/>
-      <c r="J12" s="95"/>
+      <c r="I12" s="97"/>
+      <c r="J12" s="97"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" s="75" t="s">
@@ -2172,8 +2172,8 @@
       <c r="F13" s="38"/>
       <c r="G13" s="38"/>
       <c r="H13" s="41"/>
-      <c r="I13" s="95"/>
-      <c r="J13" s="95"/>
+      <c r="I13" s="97"/>
+      <c r="J13" s="97"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="44" t="s">
@@ -2199,8 +2199,8 @@
         <f>IF(B11="","",INDEX(BD!$A$3:$G$10,MATCH(B11,BD!$A$3:$A$10,0),7))</f>
         <v>m2 de SBP</v>
       </c>
-      <c r="I14" s="95"/>
-      <c r="J14" s="95"/>
+      <c r="I14" s="97"/>
+      <c r="J14" s="97"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" s="45" t="s">
@@ -2211,8 +2211,8 @@
         <v>10.8</v>
       </c>
       <c r="D15" s="41"/>
-      <c r="I15" s="95"/>
-      <c r="J15" s="95"/>
+      <c r="I15" s="97"/>
+      <c r="J15" s="97"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" s="48"/>
@@ -2225,27 +2225,27 @@
       <c r="D17" s="46"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B18" s="96" t="s">
+      <c r="B18" s="99" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="96"/>
-      <c r="D18" s="96"/>
-      <c r="E18" s="96"/>
-      <c r="F18" s="96"/>
-      <c r="G18" s="96"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="99"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="99"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B20" s="89" t="str">
+      <c r="B20" s="103" t="str">
         <f>details_projet!B21</f>
         <v>Services à nombreuse clientèle</v>
       </c>
-      <c r="C20" s="90"/>
-      <c r="D20" s="91" t="s">
+      <c r="C20" s="104"/>
+      <c r="D20" s="98" t="s">
         <v>56</v>
       </c>
-      <c r="E20" s="91"/>
-      <c r="F20" s="91"/>
-      <c r="G20" s="91"/>
+      <c r="E20" s="98"/>
+      <c r="F20" s="98"/>
+      <c r="G20" s="98"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B21" s="50" t="s">
@@ -2307,17 +2307,17 @@
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B25" s="89" t="str">
+      <c r="B25" s="103" t="str">
         <f>details_projet!B25</f>
         <v>Autres services</v>
       </c>
-      <c r="C25" s="90"/>
-      <c r="D25" s="91" t="s">
+      <c r="C25" s="104"/>
+      <c r="D25" s="98" t="s">
         <v>56</v>
       </c>
-      <c r="E25" s="91"/>
-      <c r="F25" s="91"/>
-      <c r="G25" s="91"/>
+      <c r="E25" s="98"/>
+      <c r="F25" s="98"/>
+      <c r="G25" s="98"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B26" s="50" t="s">
@@ -2379,17 +2379,17 @@
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B30" s="89" t="str">
+      <c r="B30" s="103" t="str">
         <f>details_projet!B29</f>
         <v>Magasins à nombreuse clientèle</v>
       </c>
-      <c r="C30" s="90"/>
-      <c r="D30" s="91" t="s">
+      <c r="C30" s="104"/>
+      <c r="D30" s="98" t="s">
         <v>56</v>
       </c>
-      <c r="E30" s="91"/>
-      <c r="F30" s="91"/>
-      <c r="G30" s="91"/>
+      <c r="E30" s="98"/>
+      <c r="F30" s="98"/>
+      <c r="G30" s="98"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B31" s="50" t="s">
@@ -2451,17 +2451,17 @@
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B35" s="89" t="str">
+      <c r="B35" s="103" t="str">
         <f>details_projet!B33</f>
         <v>Autres magasins</v>
       </c>
-      <c r="C35" s="90"/>
-      <c r="D35" s="91" t="s">
+      <c r="C35" s="104"/>
+      <c r="D35" s="98" t="s">
         <v>56</v>
       </c>
-      <c r="E35" s="91"/>
-      <c r="F35" s="91"/>
-      <c r="G35" s="91"/>
+      <c r="E35" s="98"/>
+      <c r="F35" s="98"/>
+      <c r="G35" s="98"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B36" s="50" t="s">
@@ -2523,17 +2523,17 @@
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B40" s="89" t="str">
+      <c r="B40" s="103" t="str">
         <f>details_projet!B37</f>
         <v>Industrie et artisanat</v>
       </c>
-      <c r="C40" s="90"/>
-      <c r="D40" s="91" t="s">
+      <c r="C40" s="104"/>
+      <c r="D40" s="98" t="s">
         <v>56</v>
       </c>
-      <c r="E40" s="91"/>
-      <c r="F40" s="91"/>
-      <c r="G40" s="91"/>
+      <c r="E40" s="98"/>
+      <c r="F40" s="98"/>
+      <c r="G40" s="98"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B41" s="50" t="s">
@@ -2595,17 +2595,17 @@
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B45" s="89" t="str">
+      <c r="B45" s="103" t="str">
         <f>details_projet!B41</f>
         <v>Entrepôts et dépôts</v>
       </c>
-      <c r="C45" s="90"/>
-      <c r="D45" s="91" t="s">
+      <c r="C45" s="104"/>
+      <c r="D45" s="98" t="s">
         <v>56</v>
       </c>
-      <c r="E45" s="91"/>
-      <c r="F45" s="91"/>
-      <c r="G45" s="91"/>
+      <c r="E45" s="98"/>
+      <c r="F45" s="98"/>
+      <c r="G45" s="98"/>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B46" s="50" t="s">
@@ -2668,11 +2668,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="I5:J15"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D30:G30"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="D35:G35"/>
     <mergeCell ref="B5:C5"/>
@@ -2682,12 +2683,11 @@
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D20:G20"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="I5:J15"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="D11:G11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2712,11 +2712,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1" s="99" t="s">
+      <c r="B1" s="106" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B2" s="56"/>
@@ -2724,11 +2724,11 @@
       <c r="D2" s="56"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B3" s="100" t="s">
+      <c r="B3" s="108" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" s="34"/>
@@ -2736,15 +2736,15 @@
       <c r="D4" s="34"/>
     </row>
     <row r="5" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="97" t="str">
+      <c r="B5" s="107" t="str">
         <f>besoin_brut!B5</f>
         <v>Logements standards</v>
       </c>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="107"/>
     </row>
     <row r="6" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="98" t="s">
+      <c r="B6" s="105" t="s">
         <v>71</v>
       </c>
       <c r="C6" s="58" t="s">
@@ -2755,7 +2755,7 @@
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="98"/>
+      <c r="B7" s="105"/>
       <c r="C7" s="67">
         <v>0.5</v>
       </c>
@@ -2803,15 +2803,15 @@
       </c>
     </row>
     <row r="12" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="97" t="str">
+      <c r="B12" s="107" t="str">
         <f>besoin_brut!B11</f>
         <v>Logements avec encadrement ou étudiants</v>
       </c>
-      <c r="C12" s="97"/>
-      <c r="D12" s="97"/>
+      <c r="C12" s="107"/>
+      <c r="D12" s="107"/>
     </row>
     <row r="13" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="98" t="s">
+      <c r="B13" s="105" t="s">
         <v>71</v>
       </c>
       <c r="C13" s="58" t="s">
@@ -2822,7 +2822,7 @@
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B14" s="98"/>
+      <c r="B14" s="105"/>
       <c r="C14" s="67">
         <v>0.5</v>
       </c>
@@ -2885,22 +2885,22 @@
       <c r="D20" s="46"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B21" s="96" t="s">
+      <c r="B21" s="99" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="96"/>
-      <c r="D21" s="96"/>
+      <c r="C21" s="99"/>
+      <c r="D21" s="99"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B23" s="97" t="str">
+      <c r="B23" s="107" t="str">
         <f>besoin_brut!B20</f>
         <v>Services à nombreuse clientèle</v>
       </c>
-      <c r="C23" s="97"/>
-      <c r="D23" s="97"/>
+      <c r="C23" s="107"/>
+      <c r="D23" s="107"/>
     </row>
     <row r="24" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="98" t="s">
+      <c r="B24" s="105" t="s">
         <v>71</v>
       </c>
       <c r="C24" s="58" t="s">
@@ -2911,7 +2911,7 @@
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B25" s="98"/>
+      <c r="B25" s="105"/>
       <c r="C25" s="67">
         <v>0.5</v>
       </c>
@@ -2959,15 +2959,15 @@
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B30" s="97" t="str">
+      <c r="B30" s="107" t="str">
         <f>besoin_brut!B25</f>
         <v>Autres services</v>
       </c>
-      <c r="C30" s="97"/>
-      <c r="D30" s="97"/>
+      <c r="C30" s="107"/>
+      <c r="D30" s="107"/>
     </row>
     <row r="31" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="98" t="s">
+      <c r="B31" s="105" t="s">
         <v>71</v>
       </c>
       <c r="C31" s="58" t="s">
@@ -2978,7 +2978,7 @@
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B32" s="98"/>
+      <c r="B32" s="105"/>
       <c r="C32" s="67">
         <v>0.5</v>
       </c>
@@ -3026,15 +3026,15 @@
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B37" s="97" t="str">
+      <c r="B37" s="107" t="str">
         <f>besoin_brut!B30</f>
         <v>Magasins à nombreuse clientèle</v>
       </c>
-      <c r="C37" s="97"/>
-      <c r="D37" s="97"/>
+      <c r="C37" s="107"/>
+      <c r="D37" s="107"/>
     </row>
     <row r="38" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="98" t="s">
+      <c r="B38" s="105" t="s">
         <v>71</v>
       </c>
       <c r="C38" s="58" t="s">
@@ -3045,7 +3045,7 @@
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B39" s="98"/>
+      <c r="B39" s="105"/>
       <c r="C39" s="67">
         <v>0.5</v>
       </c>
@@ -3093,15 +3093,15 @@
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B44" s="97" t="str">
+      <c r="B44" s="107" t="str">
         <f>besoin_brut!B35</f>
         <v>Autres magasins</v>
       </c>
-      <c r="C44" s="97"/>
-      <c r="D44" s="97"/>
+      <c r="C44" s="107"/>
+      <c r="D44" s="107"/>
     </row>
     <row r="45" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="98" t="s">
+      <c r="B45" s="105" t="s">
         <v>71</v>
       </c>
       <c r="C45" s="58" t="s">
@@ -3112,7 +3112,7 @@
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B46" s="98"/>
+      <c r="B46" s="105"/>
       <c r="C46" s="67">
         <v>0.5</v>
       </c>
@@ -3160,15 +3160,15 @@
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B51" s="97" t="str">
+      <c r="B51" s="107" t="str">
         <f>besoin_brut!B40</f>
         <v>Industrie et artisanat</v>
       </c>
-      <c r="C51" s="97"/>
-      <c r="D51" s="97"/>
+      <c r="C51" s="107"/>
+      <c r="D51" s="107"/>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B52" s="98" t="s">
+      <c r="B52" s="105" t="s">
         <v>71</v>
       </c>
       <c r="C52" s="58" t="s">
@@ -3179,7 +3179,7 @@
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B53" s="98"/>
+      <c r="B53" s="105"/>
       <c r="C53" s="67">
         <v>0.5</v>
       </c>
@@ -3227,15 +3227,15 @@
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B58" s="97" t="str">
+      <c r="B58" s="107" t="str">
         <f>besoin_brut!B45</f>
         <v>Entrepôts et dépôts</v>
       </c>
-      <c r="C58" s="97"/>
-      <c r="D58" s="97"/>
+      <c r="C58" s="107"/>
+      <c r="D58" s="107"/>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B59" s="98" t="s">
+      <c r="B59" s="105" t="s">
         <v>71</v>
       </c>
       <c r="C59" s="58" t="s">
@@ -3246,7 +3246,7 @@
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B60" s="98"/>
+      <c r="B60" s="105"/>
       <c r="C60" s="67">
         <v>0.5</v>
       </c>
@@ -3295,17 +3295,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:B32"/>
     <mergeCell ref="B51:D51"/>
     <mergeCell ref="B52:B53"/>
     <mergeCell ref="B58:D58"/>
@@ -3314,6 +3303,17 @@
     <mergeCell ref="B38:B39"/>
     <mergeCell ref="B44:D44"/>
     <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B5:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3324,8 +3324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3342,11 +3342,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B1" s="103" t="s">
+      <c r="B1" s="114" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B2" s="55"/>
@@ -3354,24 +3354,24 @@
       <c r="D2" s="55"/>
     </row>
     <row r="3" spans="2:8" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="104" t="s">
+      <c r="B3" s="113" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="104"/>
-      <c r="D3" s="104"/>
-      <c r="E3" s="104"/>
-      <c r="F3" s="104"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
     </row>
     <row r="4" spans="2:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="101" t="s">
+      <c r="B4" s="109" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="102"/>
+      <c r="C4" s="110"/>
       <c r="D4" s="55"/>
-      <c r="E4" s="101" t="s">
+      <c r="E4" s="109" t="s">
         <v>81</v>
       </c>
-      <c r="F4" s="102"/>
+      <c r="F4" s="110"/>
     </row>
     <row r="5" spans="2:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="72" t="s">
@@ -3394,86 +3394,86 @@
       <c r="F6" s="82"/>
     </row>
     <row r="7" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="106" t="s">
+      <c r="B7" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="114">
+      <c r="C7" s="89">
         <v>0</v>
       </c>
-      <c r="E7" s="106" t="s">
+      <c r="E7" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="114">
+      <c r="F7" s="89">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="106" t="s">
+      <c r="B8" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="114">
+      <c r="C8" s="89">
         <v>0</v>
       </c>
-      <c r="E8" s="106" t="s">
+      <c r="E8" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="114">
+      <c r="F8" s="89">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="106" t="s">
+      <c r="B9" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="114">
+      <c r="C9" s="89">
         <v>0</v>
       </c>
-      <c r="E9" s="106" t="s">
+      <c r="E9" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="114">
+      <c r="F9" s="89">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="106" t="s">
+      <c r="B10" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="114">
+      <c r="C10" s="89">
         <v>0</v>
       </c>
-      <c r="E10" s="106" t="s">
+      <c r="E10" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="114">
+      <c r="F10" s="89">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="106" t="s">
+      <c r="B11" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="114">
+      <c r="C11" s="89">
         <v>0</v>
       </c>
-      <c r="E11" s="106" t="s">
+      <c r="E11" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="114">
+      <c r="F11" s="89">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="106" t="s">
+      <c r="B12" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="114">
+      <c r="C12" s="89">
         <v>0</v>
       </c>
-      <c r="E12" s="106" t="s">
+      <c r="E12" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="114">
+      <c r="F12" s="89">
         <v>0</v>
       </c>
     </row>
@@ -3484,15 +3484,15 @@
       <c r="G13" s="27"/>
     </row>
     <row r="14" spans="2:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="101" t="s">
+      <c r="B14" s="109" t="s">
         <v>82</v>
       </c>
-      <c r="C14" s="102"/>
+      <c r="C14" s="110"/>
       <c r="D14" s="29"/>
-      <c r="E14" s="101" t="s">
+      <c r="E14" s="109" t="s">
         <v>83</v>
       </c>
-      <c r="F14" s="102"/>
+      <c r="F14" s="110"/>
       <c r="G14" s="29"/>
       <c r="H14" s="29"/>
     </row>
@@ -3513,12 +3513,12 @@
       <c r="B16" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="C16" s="107"/>
+      <c r="C16" s="84"/>
       <c r="D16" s="29"/>
       <c r="E16" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="F16" s="115">
+      <c r="F16" s="90">
         <v>0</v>
       </c>
       <c r="G16" s="29" t="s">
@@ -3527,10 +3527,10 @@
       <c r="H16" s="29"/>
     </row>
     <row r="17" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="106" t="s">
+      <c r="B17" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="112">
+      <c r="C17" s="87">
         <v>0.5</v>
       </c>
       <c r="D17" s="29"/>
@@ -3540,10 +3540,10 @@
       <c r="H17" s="29"/>
     </row>
     <row r="18" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="106" t="s">
+      <c r="B18" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="112">
+      <c r="C18" s="87">
         <v>0.5</v>
       </c>
       <c r="D18" s="29"/>
@@ -3553,10 +3553,10 @@
       <c r="H18" s="29"/>
     </row>
     <row r="19" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="106" t="s">
+      <c r="B19" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="112">
+      <c r="C19" s="87">
         <v>0.5</v>
       </c>
       <c r="D19" s="29"/>
@@ -3566,10 +3566,10 @@
       <c r="H19" s="29"/>
     </row>
     <row r="20" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="106" t="s">
+      <c r="B20" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="112">
+      <c r="C20" s="87">
         <v>0.5</v>
       </c>
       <c r="D20" s="29"/>
@@ -3579,10 +3579,10 @@
       <c r="H20" s="29"/>
     </row>
     <row r="21" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="106" t="s">
+      <c r="B21" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="112">
+      <c r="C21" s="87">
         <v>0.5</v>
       </c>
       <c r="D21" s="29"/>
@@ -3592,10 +3592,10 @@
       <c r="H21" s="29"/>
     </row>
     <row r="22" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="106" t="s">
+      <c r="B22" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="112">
+      <c r="C22" s="87">
         <v>0.5</v>
       </c>
       <c r="D22" s="29"/>
@@ -3605,10 +3605,10 @@
       <c r="H22" s="29"/>
     </row>
     <row r="23" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="106" t="s">
+      <c r="B23" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="112">
+      <c r="C23" s="87">
         <v>0.5</v>
       </c>
       <c r="D23" s="27"/>
@@ -3617,111 +3617,112 @@
       <c r="G23" s="29"/>
     </row>
     <row r="24" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="106" t="s">
+      <c r="B24" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="112">
+      <c r="C24" s="87">
         <v>0.5</v>
       </c>
     </row>
     <row r="27" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="101" t="s">
+      <c r="B27" s="109" t="s">
         <v>84</v>
       </c>
-      <c r="C27" s="102"/>
+      <c r="C27" s="110"/>
     </row>
     <row r="28" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="111" t="s">
+      <c r="B28" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="113">
+      <c r="C28" s="88">
         <f>C17</f>
         <v>0.5</v>
       </c>
-      <c r="D28" s="110" t="s">
+      <c r="D28" s="112" t="s">
         <v>86</v>
       </c>
-      <c r="E28" s="108"/>
+      <c r="E28" s="111"/>
     </row>
     <row r="29" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="111" t="s">
+      <c r="B29" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="113">
+      <c r="C29" s="88">
         <f>SUM(C18,F16)</f>
         <v>0.5</v>
       </c>
-      <c r="D29" s="110"/>
-      <c r="E29" s="108"/>
+      <c r="D29" s="112"/>
+      <c r="E29" s="111"/>
     </row>
     <row r="30" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="111" t="s">
+      <c r="B30" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="113">
+      <c r="C30" s="88">
         <f>SUM(C7,F7,C19)</f>
         <v>0.5</v>
       </c>
-      <c r="D30" s="110"/>
-      <c r="E30" s="108"/>
+      <c r="D30" s="112"/>
+      <c r="E30" s="111"/>
     </row>
     <row r="31" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="111" t="s">
+      <c r="B31" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="113">
+      <c r="C31" s="88">
         <f t="shared" ref="C31:C35" si="0">SUM(C8,F8,C20)</f>
         <v>0.5</v>
       </c>
-      <c r="D31" s="110"/>
-      <c r="E31" s="108"/>
+      <c r="D31" s="112"/>
+      <c r="E31" s="111"/>
     </row>
     <row r="32" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="111" t="s">
+      <c r="B32" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="113">
+      <c r="C32" s="88">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="D32" s="110"/>
-      <c r="E32" s="108"/>
+      <c r="D32" s="112"/>
+      <c r="E32" s="111"/>
     </row>
     <row r="33" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="111" t="s">
+      <c r="B33" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="113">
+      <c r="C33" s="88">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="D33" s="110"/>
-      <c r="E33" s="108"/>
+      <c r="D33" s="112"/>
+      <c r="E33" s="111"/>
     </row>
     <row r="34" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="111" t="s">
+      <c r="B34" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="113">
+      <c r="C34" s="88">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="D34" s="110"/>
-      <c r="E34" s="108"/>
+      <c r="D34" s="112"/>
+      <c r="E34" s="111"/>
     </row>
     <row r="35" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="111" t="s">
+      <c r="B35" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="C35" s="113">
+      <c r="C35" s="88">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="D35" s="110"/>
-      <c r="E35" s="108"/>
+      <c r="D35" s="112"/>
+      <c r="E35" s="111"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B1:D1"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="E28:E35"/>
     <mergeCell ref="D28:D35"/>
@@ -3730,13 +3731,12 @@
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="decimal" allowBlank="1" showErrorMessage="1" errorTitle="Pourcentage incorrect" error="Le pourcentage de réduction maximal est de 50%">
           <x14:formula1>
             <xm:f>BD!B23</xm:f>
@@ -3769,11 +3769,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1" s="99" t="s">
+      <c r="B1" s="106" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B2" s="56"/>
@@ -3781,11 +3781,11 @@
       <c r="D2" s="56"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B3" s="100" t="s">
+      <c r="B3" s="108" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" s="71"/>
@@ -3793,15 +3793,15 @@
       <c r="D4" s="71"/>
     </row>
     <row r="5" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="97" t="str">
+      <c r="B5" s="107" t="str">
         <f>besoin_brut!B5</f>
         <v>Logements standards</v>
       </c>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="107"/>
     </row>
     <row r="6" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="98" t="s">
+      <c r="B6" s="105" t="s">
         <v>71</v>
       </c>
       <c r="C6" s="58" t="s">
@@ -3812,7 +3812,7 @@
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="98"/>
+      <c r="B7" s="105"/>
       <c r="C7" s="67"/>
       <c r="D7" s="67"/>
     </row>
@@ -3856,15 +3856,15 @@
       </c>
     </row>
     <row r="12" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="97" t="str">
+      <c r="B12" s="107" t="str">
         <f>besoin_brut!B11</f>
         <v>Logements avec encadrement ou étudiants</v>
       </c>
-      <c r="C12" s="97"/>
-      <c r="D12" s="97"/>
+      <c r="C12" s="107"/>
+      <c r="D12" s="107"/>
     </row>
     <row r="13" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="98" t="s">
+      <c r="B13" s="105" t="s">
         <v>71</v>
       </c>
       <c r="C13" s="58" t="s">
@@ -3875,7 +3875,7 @@
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B14" s="98"/>
+      <c r="B14" s="105"/>
       <c r="C14" s="67"/>
       <c r="D14" s="67"/>
     </row>
@@ -3934,22 +3934,22 @@
       <c r="D20" s="46"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B21" s="96" t="s">
+      <c r="B21" s="99" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="96"/>
-      <c r="D21" s="96"/>
+      <c r="C21" s="99"/>
+      <c r="D21" s="99"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B23" s="97" t="str">
+      <c r="B23" s="107" t="str">
         <f>besoin_brut!B20</f>
         <v>Services à nombreuse clientèle</v>
       </c>
-      <c r="C23" s="97"/>
-      <c r="D23" s="97"/>
+      <c r="C23" s="107"/>
+      <c r="D23" s="107"/>
     </row>
     <row r="24" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="98" t="s">
+      <c r="B24" s="105" t="s">
         <v>71</v>
       </c>
       <c r="C24" s="58" t="s">
@@ -3960,7 +3960,7 @@
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B25" s="98"/>
+      <c r="B25" s="105"/>
       <c r="C25" s="67"/>
       <c r="D25" s="67"/>
     </row>
@@ -4004,15 +4004,15 @@
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B30" s="97" t="str">
+      <c r="B30" s="107" t="str">
         <f>besoin_brut!B25</f>
         <v>Autres services</v>
       </c>
-      <c r="C30" s="97"/>
-      <c r="D30" s="97"/>
+      <c r="C30" s="107"/>
+      <c r="D30" s="107"/>
     </row>
     <row r="31" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="98" t="s">
+      <c r="B31" s="105" t="s">
         <v>71</v>
       </c>
       <c r="C31" s="58" t="s">
@@ -4023,7 +4023,7 @@
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B32" s="98"/>
+      <c r="B32" s="105"/>
       <c r="C32" s="67"/>
       <c r="D32" s="67"/>
     </row>
@@ -4067,15 +4067,15 @@
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B37" s="97" t="str">
+      <c r="B37" s="107" t="str">
         <f>besoin_brut!B30</f>
         <v>Magasins à nombreuse clientèle</v>
       </c>
-      <c r="C37" s="97"/>
-      <c r="D37" s="97"/>
+      <c r="C37" s="107"/>
+      <c r="D37" s="107"/>
     </row>
     <row r="38" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="98" t="s">
+      <c r="B38" s="105" t="s">
         <v>71</v>
       </c>
       <c r="C38" s="58" t="s">
@@ -4086,7 +4086,7 @@
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B39" s="98"/>
+      <c r="B39" s="105"/>
       <c r="C39" s="67"/>
       <c r="D39" s="67"/>
     </row>
@@ -4130,15 +4130,15 @@
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B44" s="97" t="str">
+      <c r="B44" s="107" t="str">
         <f>besoin_brut!B35</f>
         <v>Autres magasins</v>
       </c>
-      <c r="C44" s="97"/>
-      <c r="D44" s="97"/>
+      <c r="C44" s="107"/>
+      <c r="D44" s="107"/>
     </row>
     <row r="45" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="98" t="s">
+      <c r="B45" s="105" t="s">
         <v>71</v>
       </c>
       <c r="C45" s="58" t="s">
@@ -4149,7 +4149,7 @@
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B46" s="98"/>
+      <c r="B46" s="105"/>
       <c r="C46" s="67"/>
       <c r="D46" s="67"/>
     </row>
@@ -4193,15 +4193,15 @@
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B51" s="97" t="str">
+      <c r="B51" s="107" t="str">
         <f>besoin_brut!B40</f>
         <v>Industrie et artisanat</v>
       </c>
-      <c r="C51" s="97"/>
-      <c r="D51" s="97"/>
+      <c r="C51" s="107"/>
+      <c r="D51" s="107"/>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B52" s="98" t="s">
+      <c r="B52" s="105" t="s">
         <v>71</v>
       </c>
       <c r="C52" s="58" t="s">
@@ -4212,7 +4212,7 @@
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B53" s="98"/>
+      <c r="B53" s="105"/>
       <c r="C53" s="67"/>
       <c r="D53" s="67"/>
     </row>
@@ -4256,15 +4256,15 @@
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B58" s="97" t="str">
+      <c r="B58" s="107" t="str">
         <f>besoin_brut!B45</f>
         <v>Entrepôts et dépôts</v>
       </c>
-      <c r="C58" s="97"/>
-      <c r="D58" s="97"/>
+      <c r="C58" s="107"/>
+      <c r="D58" s="107"/>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B59" s="98" t="s">
+      <c r="B59" s="105" t="s">
         <v>71</v>
       </c>
       <c r="C59" s="58" t="s">
@@ -4275,7 +4275,7 @@
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B60" s="98"/>
+      <c r="B60" s="105"/>
       <c r="C60" s="67"/>
       <c r="D60" s="67"/>
     </row>
@@ -4320,17 +4320,7 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B21:D21"/>
     <mergeCell ref="B59:B60"/>
     <mergeCell ref="B38:B39"/>
     <mergeCell ref="B44:D44"/>
@@ -4338,7 +4328,17 @@
     <mergeCell ref="B51:D51"/>
     <mergeCell ref="B52:B53"/>
     <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B12:D12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4349,7 +4349,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -4359,13 +4359,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C1" s="105" t="s">
+      <c r="C1" s="115" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C5" s="53" t="s">
@@ -4873,10 +4873,10 @@
       <c r="J19" s="7"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B23" s="109">
+      <c r="B23" s="85">
         <v>0</v>
       </c>
-      <c r="C23" s="109">
+      <c r="C23" s="85">
         <v>0.5</v>
       </c>
     </row>
